--- a/similarities/split_global/harmonic_similarity_timestamps_250.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_250.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['Eb:7', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['D:7', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:14.410000')]</t>
+          <t>('0:02:01.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:20.050000', '0:00:26.800000')]</t>
+          <t>('0:00:57.401473', '0:01:02.625963')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=121.03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3', 'A:min']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:12.446000')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:24.120000')]</t>
+          <t>('0:01:03.080000', '0:01:11.120000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=63.08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:45.480000', '0:00:48')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000'), ('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:02:26.520000', '0:02:59.420000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000'), ('0:02:09.060000', '0:02:14.200000'), ('0:00:39.020000', '0:00:43.960000')]</t>
+          <t>('0:00:01.920000', '0:00:46.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=146.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:01:12.520000', '0:01:23.280000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2'], ['Ab', 'Db/5', 'Ab'], ['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:maj', 'A#:maj/F', 'F:maj'], ['G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>['G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:03.858000', '0:01:20.628000'), ('0:00:00.243000', '0:00:09.120000'), ('0:00:23.575000', '0:00:34.995000')]</t>
+          <t>('0:00:21.740249', '0:00:42.394399')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:09.060000', '0:01:12.500000'), ('0:00:17.340000', '0:00:24.400000'), ('0:01:11.100000', '0:01:18.700000')]</t>
+          <t>('0:00:09.640000', '0:00:14.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=63.858', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=21.740249</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=69.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=71.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.080000')]</t>
+          <t>('0:01:02.500000', '0:01:12.760000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:32.500000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=62.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:01:06.100000', '0:01:20.980000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:48', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+          <t>('0:00:01.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000'), ('0:00:00.220000', '0:00:03.440000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F', 'C']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:09.717289', '0:00:15.986961')]</t>
+          <t>('0:00:32.980000', '0:00:35.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:09.967000', '0:00:18.318000')]</t>
+          <t>('0:00:32.200000', '0:00:36.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=9.717289']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_67</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F', 'G', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:03.861000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:01:37.773990', '0:01:42.557301')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-67#t=97.77399</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
